--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.235186000000001</v>
+        <v>7.644899</v>
       </c>
       <c r="H2">
-        <v>15.705558</v>
+        <v>22.934697</v>
       </c>
       <c r="I2">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="J2">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.44050866666666</v>
+        <v>72.23097766666666</v>
       </c>
       <c r="N2">
-        <v>193.321526</v>
+        <v>216.692933</v>
       </c>
       <c r="O2">
-        <v>0.5284084541711455</v>
+        <v>0.6170594568990628</v>
       </c>
       <c r="P2">
-        <v>0.5284084541711456</v>
+        <v>0.6170594568990629</v>
       </c>
       <c r="Q2">
-        <v>337.358048804612</v>
+        <v>552.1985289329223</v>
       </c>
       <c r="R2">
-        <v>3036.222439241508</v>
+        <v>4969.7867603963</v>
       </c>
       <c r="S2">
-        <v>0.06376372063280417</v>
+        <v>0.10331545647442</v>
       </c>
       <c r="T2">
-        <v>0.06376372063280418</v>
+        <v>0.10331545647442</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.235186000000001</v>
+        <v>7.644899</v>
       </c>
       <c r="H3">
-        <v>15.705558</v>
+        <v>22.934697</v>
       </c>
       <c r="I3">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="J3">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.371831</v>
       </c>
       <c r="O3">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767264</v>
       </c>
       <c r="P3">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767265</v>
       </c>
       <c r="Q3">
-        <v>12.864302148522</v>
+        <v>18.785634480023</v>
       </c>
       <c r="R3">
-        <v>115.778719336698</v>
+        <v>169.070710320207</v>
       </c>
       <c r="S3">
-        <v>0.00243146938761618</v>
+        <v>0.003514761991879449</v>
       </c>
       <c r="T3">
-        <v>0.002431469387616181</v>
+        <v>0.00351476199187945</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.235186000000001</v>
+        <v>7.644899</v>
       </c>
       <c r="H4">
-        <v>15.705558</v>
+        <v>22.934697</v>
       </c>
       <c r="I4">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="J4">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.791731</v>
+        <v>18.10887533333333</v>
       </c>
       <c r="N4">
-        <v>59.375193</v>
+        <v>54.326626</v>
       </c>
       <c r="O4">
-        <v>0.162291052623097</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="P4">
-        <v>0.1622910526230971</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="Q4">
-        <v>103.613393046966</v>
+        <v>138.4405229269247</v>
       </c>
       <c r="R4">
-        <v>932.520537422694</v>
+        <v>1245.964706342322</v>
       </c>
       <c r="S4">
-        <v>0.01958386785634431</v>
+        <v>0.02590199913859256</v>
       </c>
       <c r="T4">
-        <v>0.01958386785634431</v>
+        <v>0.02590199913859256</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.235186000000001</v>
+        <v>7.644899</v>
       </c>
       <c r="H5">
-        <v>15.705558</v>
+        <v>22.934697</v>
       </c>
       <c r="I5">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="J5">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.960099333333333</v>
+        <v>3.682952333333333</v>
       </c>
       <c r="N5">
-        <v>8.880298</v>
+        <v>11.048857</v>
       </c>
       <c r="O5">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="P5">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="Q5">
-        <v>15.496670588476</v>
+        <v>28.15579861014766</v>
       </c>
       <c r="R5">
-        <v>139.470035296284</v>
+        <v>253.402187491329</v>
       </c>
       <c r="S5">
-        <v>0.002929010816974669</v>
+        <v>0.005267904627400058</v>
       </c>
       <c r="T5">
-        <v>0.002929010816974669</v>
+        <v>0.005267904627400059</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.235186000000001</v>
+        <v>7.644899</v>
       </c>
       <c r="H6">
-        <v>15.705558</v>
+        <v>22.934697</v>
       </c>
       <c r="I6">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="J6">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.452280999999999</v>
+        <v>8.370851</v>
       </c>
       <c r="N6">
-        <v>22.356843</v>
+        <v>25.112553</v>
       </c>
       <c r="O6">
-        <v>0.0611082743562504</v>
+        <v>0.07151104607333426</v>
       </c>
       <c r="P6">
-        <v>0.06110827435625042</v>
+        <v>0.07151104607333425</v>
       </c>
       <c r="Q6">
-        <v>39.014077159266</v>
+        <v>63.99431043904899</v>
       </c>
       <c r="R6">
-        <v>351.126694433394</v>
+        <v>575.948793951441</v>
       </c>
       <c r="S6">
-        <v>0.007374013234736537</v>
+        <v>0.01197323253930513</v>
       </c>
       <c r="T6">
-        <v>0.007374013234736538</v>
+        <v>0.01197323253930513</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.235186000000001</v>
+        <v>7.644899</v>
       </c>
       <c r="H7">
-        <v>15.705558</v>
+        <v>22.934697</v>
       </c>
       <c r="I7">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="J7">
-        <v>0.1206712726290935</v>
+        <v>0.1674319311037155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.85018033333334</v>
+        <v>12.20582166666667</v>
       </c>
       <c r="N7">
-        <v>74.55054100000001</v>
+        <v>36.617465</v>
       </c>
       <c r="O7">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="P7">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="Q7">
-        <v>130.095316178542</v>
+        <v>93.31227385367832</v>
       </c>
       <c r="R7">
-        <v>1170.857845606878</v>
+        <v>839.8104646831049</v>
       </c>
       <c r="S7">
-        <v>0.02458919070061766</v>
+        <v>0.0174585763321183</v>
       </c>
       <c r="T7">
-        <v>0.02458919070061766</v>
+        <v>0.01745857633211831</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>28.809988</v>
       </c>
       <c r="I8">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233065</v>
       </c>
       <c r="J8">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233066</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.44050866666666</v>
+        <v>72.23097766666666</v>
       </c>
       <c r="N8">
-        <v>193.321526</v>
+        <v>216.692933</v>
       </c>
       <c r="O8">
-        <v>0.5284084541711455</v>
+        <v>0.6170594568990628</v>
       </c>
       <c r="P8">
-        <v>0.5284084541711456</v>
+        <v>0.6170594568990629</v>
       </c>
       <c r="Q8">
-        <v>618.8434271335208</v>
+        <v>693.6578666016449</v>
       </c>
       <c r="R8">
-        <v>5569.590844201687</v>
+        <v>6242.920799414804</v>
       </c>
       <c r="S8">
-        <v>0.1169670015077745</v>
+        <v>0.1297822709950152</v>
       </c>
       <c r="T8">
-        <v>0.1169670015077745</v>
+        <v>0.1297822709950152</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>28.809988</v>
       </c>
       <c r="I9">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233065</v>
       </c>
       <c r="J9">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233066</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.371831</v>
       </c>
       <c r="O9">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767264</v>
       </c>
       <c r="P9">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767265</v>
       </c>
       <c r="Q9">
         <v>23.59804029422533</v>
@@ -1013,10 +1013,10 @@
         <v>212.382362648028</v>
       </c>
       <c r="S9">
-        <v>0.004460242920346382</v>
+        <v>0.004415155378285705</v>
       </c>
       <c r="T9">
-        <v>0.004460242920346384</v>
+        <v>0.004415155378285706</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>28.809988</v>
       </c>
       <c r="I10">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233065</v>
       </c>
       <c r="J10">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233066</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.791731</v>
+        <v>18.10887533333333</v>
       </c>
       <c r="N10">
-        <v>59.375193</v>
+        <v>54.326626</v>
       </c>
       <c r="O10">
-        <v>0.162291052623097</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="P10">
-        <v>0.1622910526230971</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="Q10">
-        <v>190.0665108697426</v>
+        <v>173.9054936822764</v>
       </c>
       <c r="R10">
-        <v>1710.598597827684</v>
+        <v>1565.149443140488</v>
       </c>
       <c r="S10">
-        <v>0.03592428858209718</v>
+        <v>0.03253743811652981</v>
       </c>
       <c r="T10">
-        <v>0.03592428858209719</v>
+        <v>0.03253743811652981</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>28.809988</v>
       </c>
       <c r="I11">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233065</v>
       </c>
       <c r="J11">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233066</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.960099333333333</v>
+        <v>3.682952333333333</v>
       </c>
       <c r="N11">
-        <v>8.880298</v>
+        <v>11.048857</v>
       </c>
       <c r="O11">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="P11">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="Q11">
-        <v>28.42680875738045</v>
+        <v>35.36860417596844</v>
       </c>
       <c r="R11">
-        <v>255.841278816424</v>
+        <v>318.317437583716</v>
       </c>
       <c r="S11">
-        <v>0.005372923807540642</v>
+        <v>0.006617408945953816</v>
       </c>
       <c r="T11">
-        <v>0.005372923807540644</v>
+        <v>0.006617408945953817</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>28.809988</v>
       </c>
       <c r="I12">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233065</v>
       </c>
       <c r="J12">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233066</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.452280999999999</v>
+        <v>8.370851</v>
       </c>
       <c r="N12">
-        <v>22.356843</v>
+        <v>25.112553</v>
       </c>
       <c r="O12">
-        <v>0.0611082743562504</v>
+        <v>0.07151104607333426</v>
       </c>
       <c r="P12">
-        <v>0.06110827435625042</v>
+        <v>0.07151104607333425</v>
       </c>
       <c r="Q12">
-        <v>71.56670872754266</v>
+        <v>80.38803895326267</v>
       </c>
       <c r="R12">
-        <v>644.1003785478839</v>
+        <v>723.4923505793639</v>
       </c>
       <c r="S12">
-        <v>0.01352675484720764</v>
+        <v>0.01504047277269851</v>
       </c>
       <c r="T12">
-        <v>0.01352675484720765</v>
+        <v>0.01504047277269851</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>28.809988</v>
       </c>
       <c r="I13">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233065</v>
       </c>
       <c r="J13">
-        <v>0.2213571728167132</v>
+        <v>0.2103237695233066</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.85018033333334</v>
+        <v>12.20582166666667</v>
       </c>
       <c r="N13">
-        <v>74.55054100000001</v>
+        <v>36.617465</v>
       </c>
       <c r="O13">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="P13">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="Q13">
-        <v>238.6444657337231</v>
+        <v>117.2165252489355</v>
       </c>
       <c r="R13">
-        <v>2147.800191603508</v>
+        <v>1054.94872724042</v>
       </c>
       <c r="S13">
-        <v>0.0451059611517468</v>
+        <v>0.02193102331482349</v>
       </c>
       <c r="T13">
-        <v>0.04510596115174681</v>
+        <v>0.02193102331482349</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.838605666666668</v>
+        <v>9.218441666666665</v>
       </c>
       <c r="H14">
-        <v>26.515817</v>
+        <v>27.655325</v>
       </c>
       <c r="I14">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="J14">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>64.44050866666666</v>
+        <v>72.23097766666666</v>
       </c>
       <c r="N14">
-        <v>193.321526</v>
+        <v>216.692933</v>
       </c>
       <c r="O14">
-        <v>0.5284084541711455</v>
+        <v>0.6170594568990628</v>
       </c>
       <c r="P14">
-        <v>0.5284084541711456</v>
+        <v>0.6170594568990629</v>
       </c>
       <c r="Q14">
-        <v>569.5642450640825</v>
+        <v>665.8570541464693</v>
       </c>
       <c r="R14">
-        <v>5126.078205576742</v>
+        <v>5992.713487318224</v>
       </c>
       <c r="S14">
-        <v>0.1076527906578397</v>
+        <v>0.1245807837061653</v>
       </c>
       <c r="T14">
-        <v>0.1076527906578397</v>
+        <v>0.1245807837061653</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.838605666666668</v>
+        <v>9.218441666666665</v>
       </c>
       <c r="H15">
-        <v>26.515817</v>
+        <v>27.655325</v>
       </c>
       <c r="I15">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="J15">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.371831</v>
       </c>
       <c r="O15">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767264</v>
       </c>
       <c r="P15">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767265</v>
       </c>
       <c r="Q15">
-        <v>21.71890241676967</v>
+        <v>22.65226468334166</v>
       </c>
       <c r="R15">
-        <v>195.470121750927</v>
+        <v>203.870382150075</v>
       </c>
       <c r="S15">
-        <v>0.004105068875816619</v>
+        <v>0.004238202282902343</v>
       </c>
       <c r="T15">
-        <v>0.00410506887581662</v>
+        <v>0.004238202282902344</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.838605666666668</v>
+        <v>9.218441666666665</v>
       </c>
       <c r="H16">
-        <v>26.515817</v>
+        <v>27.655325</v>
       </c>
       <c r="I16">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="J16">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.791731</v>
+        <v>18.10887533333333</v>
       </c>
       <c r="N16">
-        <v>59.375193</v>
+        <v>54.326626</v>
       </c>
       <c r="O16">
-        <v>0.162291052623097</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="P16">
-        <v>0.1622910526230971</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="Q16">
-        <v>174.9313057697424</v>
+        <v>166.9356109092722</v>
       </c>
       <c r="R16">
-        <v>1574.381751927681</v>
+        <v>1502.42049818345</v>
       </c>
       <c r="S16">
-        <v>0.0330635980097624</v>
+        <v>0.03123338426173658</v>
       </c>
       <c r="T16">
-        <v>0.0330635980097624</v>
+        <v>0.03123338426173658</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.838605666666668</v>
+        <v>9.218441666666665</v>
       </c>
       <c r="H17">
-        <v>26.515817</v>
+        <v>27.655325</v>
       </c>
       <c r="I17">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="J17">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.960099333333333</v>
+        <v>3.682952333333333</v>
       </c>
       <c r="N17">
-        <v>8.880298</v>
+        <v>11.048857</v>
       </c>
       <c r="O17">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="P17">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="Q17">
-        <v>26.16315074149623</v>
+        <v>33.95108124594721</v>
       </c>
       <c r="R17">
-        <v>235.468356673466</v>
+        <v>305.559731213525</v>
       </c>
       <c r="S17">
-        <v>0.004945071981136921</v>
+        <v>0.00635219268603167</v>
       </c>
       <c r="T17">
-        <v>0.004945071981136921</v>
+        <v>0.006352192686031671</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.838605666666668</v>
+        <v>9.218441666666665</v>
       </c>
       <c r="H18">
-        <v>26.515817</v>
+        <v>27.655325</v>
       </c>
       <c r="I18">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="J18">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.452280999999999</v>
+        <v>8.370851</v>
       </c>
       <c r="N18">
-        <v>22.356843</v>
+        <v>25.112553</v>
       </c>
       <c r="O18">
-        <v>0.0611082743562504</v>
+        <v>0.07151104607333426</v>
       </c>
       <c r="P18">
-        <v>0.06110827435625042</v>
+        <v>0.07151104607333425</v>
       </c>
       <c r="Q18">
-        <v>65.86777307619234</v>
+        <v>77.16620164385833</v>
       </c>
       <c r="R18">
-        <v>592.809957685731</v>
+        <v>694.4958147947249</v>
       </c>
       <c r="S18">
-        <v>0.01244960449592762</v>
+        <v>0.01443767219488701</v>
       </c>
       <c r="T18">
-        <v>0.01244960449592762</v>
+        <v>0.01443767219488701</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.838605666666668</v>
+        <v>9.218441666666665</v>
       </c>
       <c r="H19">
-        <v>26.515817</v>
+        <v>27.655325</v>
       </c>
       <c r="I19">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="J19">
-        <v>0.2037302579246247</v>
+        <v>0.2018942944853756</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.85018033333334</v>
+        <v>12.20582166666667</v>
       </c>
       <c r="N19">
-        <v>74.55054100000001</v>
+        <v>36.617465</v>
       </c>
       <c r="O19">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="P19">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="Q19">
-        <v>219.6409447118886</v>
+        <v>112.5186550279028</v>
       </c>
       <c r="R19">
-        <v>1976.768502406997</v>
+        <v>1012.667895251125</v>
       </c>
       <c r="S19">
-        <v>0.04151412390414143</v>
+        <v>0.02105205935365266</v>
       </c>
       <c r="T19">
-        <v>0.04151412390414143</v>
+        <v>0.02105205935365266</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.085742333333333</v>
+        <v>3.233835</v>
       </c>
       <c r="H20">
-        <v>15.257227</v>
+        <v>9.701505000000001</v>
       </c>
       <c r="I20">
-        <v>0.1172265893947204</v>
+        <v>0.0708246425388725</v>
       </c>
       <c r="J20">
-        <v>0.1172265893947204</v>
+        <v>0.07082464253887251</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>64.44050866666666</v>
+        <v>72.23097766666666</v>
       </c>
       <c r="N20">
-        <v>193.321526</v>
+        <v>216.692933</v>
       </c>
       <c r="O20">
-        <v>0.5284084541711455</v>
+        <v>0.6170594568990628</v>
       </c>
       <c r="P20">
-        <v>0.5284084541711456</v>
+        <v>0.6170594568990629</v>
       </c>
       <c r="Q20">
-        <v>327.7278229076002</v>
+        <v>233.583063662685</v>
       </c>
       <c r="R20">
-        <v>2949.550406168402</v>
+        <v>2102.247572964165</v>
       </c>
       <c r="S20">
-        <v>0.06194352088981981</v>
+        <v>0.04370301546010692</v>
       </c>
       <c r="T20">
-        <v>0.06194352088981982</v>
+        <v>0.04370301546010694</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.085742333333333</v>
+        <v>3.233835</v>
       </c>
       <c r="H21">
-        <v>15.257227</v>
+        <v>9.701505000000001</v>
       </c>
       <c r="I21">
-        <v>0.1172265893947204</v>
+        <v>0.0708246425388725</v>
       </c>
       <c r="J21">
-        <v>0.1172265893947204</v>
+        <v>0.07082464253887251</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.371831</v>
       </c>
       <c r="O21">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767264</v>
       </c>
       <c r="P21">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767265</v>
       </c>
       <c r="Q21">
-        <v>12.49707766362633</v>
+        <v>7.946428367295001</v>
       </c>
       <c r="R21">
-        <v>112.473698972637</v>
+        <v>71.517855305655</v>
       </c>
       <c r="S21">
-        <v>0.002362060640596854</v>
+        <v>0.001486763964574219</v>
       </c>
       <c r="T21">
-        <v>0.002362060640596855</v>
+        <v>0.001486763964574219</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.085742333333333</v>
+        <v>3.233835</v>
       </c>
       <c r="H22">
-        <v>15.257227</v>
+        <v>9.701505000000001</v>
       </c>
       <c r="I22">
-        <v>0.1172265893947204</v>
+        <v>0.0708246425388725</v>
       </c>
       <c r="J22">
-        <v>0.1172265893947204</v>
+        <v>0.07082464253887251</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>19.791731</v>
+        <v>18.10887533333333</v>
       </c>
       <c r="N22">
-        <v>59.375193</v>
+        <v>54.326626</v>
       </c>
       <c r="O22">
-        <v>0.162291052623097</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="P22">
-        <v>0.1622910526230971</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="Q22">
-        <v>100.6556441966457</v>
+        <v>58.56111486357001</v>
       </c>
       <c r="R22">
-        <v>905.900797769811</v>
+        <v>527.0500337721301</v>
       </c>
       <c r="S22">
-        <v>0.01902482658828476</v>
+        <v>0.01095669038719157</v>
       </c>
       <c r="T22">
-        <v>0.01902482658828476</v>
+        <v>0.01095669038719157</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.085742333333333</v>
+        <v>3.233835</v>
       </c>
       <c r="H23">
-        <v>15.257227</v>
+        <v>9.701505000000001</v>
       </c>
       <c r="I23">
-        <v>0.1172265893947204</v>
+        <v>0.0708246425388725</v>
       </c>
       <c r="J23">
-        <v>0.1172265893947204</v>
+        <v>0.07082464253887251</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.960099333333333</v>
+        <v>3.682952333333333</v>
       </c>
       <c r="N23">
-        <v>8.880298</v>
+        <v>11.048857</v>
       </c>
       <c r="O23">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="P23">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="Q23">
-        <v>15.05430249040511</v>
+        <v>11.910060158865</v>
       </c>
       <c r="R23">
-        <v>135.488722413646</v>
+        <v>107.190541429785</v>
       </c>
       <c r="S23">
-        <v>0.002845399247835573</v>
+        <v>0.002228353096718252</v>
       </c>
       <c r="T23">
-        <v>0.002845399247835574</v>
+        <v>0.002228353096718253</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.085742333333333</v>
+        <v>3.233835</v>
       </c>
       <c r="H24">
-        <v>15.257227</v>
+        <v>9.701505000000001</v>
       </c>
       <c r="I24">
-        <v>0.1172265893947204</v>
+        <v>0.0708246425388725</v>
       </c>
       <c r="J24">
-        <v>0.1172265893947204</v>
+        <v>0.07082464253887251</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.452280999999999</v>
+        <v>8.370851</v>
       </c>
       <c r="N24">
-        <v>22.356843</v>
+        <v>25.112553</v>
       </c>
       <c r="O24">
-        <v>0.0611082743562504</v>
+        <v>0.07151104607333426</v>
       </c>
       <c r="P24">
-        <v>0.06110827435625042</v>
+        <v>0.07151104607333425</v>
       </c>
       <c r="Q24">
-        <v>37.90038096159566</v>
+        <v>27.069950943585</v>
       </c>
       <c r="R24">
-        <v>341.103428654361</v>
+        <v>243.629558492265</v>
       </c>
       <c r="S24">
-        <v>0.007163514586580088</v>
+        <v>0.005064744275724741</v>
       </c>
       <c r="T24">
-        <v>0.00716351458658009</v>
+        <v>0.005064744275724741</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.085742333333333</v>
+        <v>3.233835</v>
       </c>
       <c r="H25">
-        <v>15.257227</v>
+        <v>9.701505000000001</v>
       </c>
       <c r="I25">
-        <v>0.1172265893947204</v>
+        <v>0.0708246425388725</v>
       </c>
       <c r="J25">
-        <v>0.1172265893947204</v>
+        <v>0.07082464253887251</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.85018033333334</v>
+        <v>12.20582166666667</v>
       </c>
       <c r="N25">
-        <v>74.55054100000001</v>
+        <v>36.617465</v>
       </c>
       <c r="O25">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="P25">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="Q25">
-        <v>126.3816141122008</v>
+        <v>39.471613309425</v>
       </c>
       <c r="R25">
-        <v>1137.434527009807</v>
+        <v>355.244519784825</v>
       </c>
       <c r="S25">
-        <v>0.02388726744160332</v>
+        <v>0.007385075354556783</v>
       </c>
       <c r="T25">
-        <v>0.02388726744160332</v>
+        <v>0.007385075354556785</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.455266333333333</v>
+        <v>5.843225666666666</v>
       </c>
       <c r="H26">
-        <v>16.365799</v>
+        <v>17.529677</v>
       </c>
       <c r="I26">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="J26">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>64.44050866666666</v>
+        <v>72.23097766666666</v>
       </c>
       <c r="N26">
-        <v>193.321526</v>
+        <v>216.692933</v>
       </c>
       <c r="O26">
-        <v>0.5284084541711455</v>
+        <v>0.6170594568990628</v>
       </c>
       <c r="P26">
-        <v>0.5284084541711456</v>
+        <v>0.6170594568990629</v>
       </c>
       <c r="Q26">
-        <v>351.5401374321415</v>
+        <v>422.0619026302934</v>
       </c>
       <c r="R26">
-        <v>3163.861236889274</v>
+        <v>3798.557123672641</v>
       </c>
       <c r="S26">
-        <v>0.06644426357653932</v>
+        <v>0.07896710303624857</v>
       </c>
       <c r="T26">
-        <v>0.06644426357653932</v>
+        <v>0.0789671030362486</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.455266333333333</v>
+        <v>5.843225666666666</v>
       </c>
       <c r="H27">
-        <v>16.365799</v>
+        <v>17.529677</v>
       </c>
       <c r="I27">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="J27">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.371831</v>
       </c>
       <c r="O27">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767264</v>
       </c>
       <c r="P27">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767265</v>
       </c>
       <c r="Q27">
-        <v>13.40510048977433</v>
+        <v>14.35842403650967</v>
       </c>
       <c r="R27">
-        <v>120.645904407969</v>
+        <v>129.225816328587</v>
       </c>
       <c r="S27">
-        <v>0.002533685162436094</v>
+        <v>0.002686438039688223</v>
       </c>
       <c r="T27">
-        <v>0.002533685162436094</v>
+        <v>0.002686438039688224</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.455266333333333</v>
+        <v>5.843225666666666</v>
       </c>
       <c r="H28">
-        <v>16.365799</v>
+        <v>17.529677</v>
       </c>
       <c r="I28">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="J28">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>19.791731</v>
+        <v>18.10887533333333</v>
       </c>
       <c r="N28">
-        <v>59.375193</v>
+        <v>54.326626</v>
       </c>
       <c r="O28">
-        <v>0.162291052623097</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="P28">
-        <v>0.1622910526230971</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="Q28">
-        <v>107.9691638026897</v>
+        <v>105.8142451422002</v>
       </c>
       <c r="R28">
-        <v>971.7224742242068</v>
+        <v>952.3282062798021</v>
       </c>
       <c r="S28">
-        <v>0.02040714790136662</v>
+        <v>0.01979767504902313</v>
       </c>
       <c r="T28">
-        <v>0.02040714790136662</v>
+        <v>0.01979767504902314</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.455266333333333</v>
+        <v>5.843225666666666</v>
       </c>
       <c r="H29">
-        <v>16.365799</v>
+        <v>17.529677</v>
       </c>
       <c r="I29">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="J29">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.960099333333333</v>
+        <v>3.682952333333333</v>
       </c>
       <c r="N29">
-        <v>8.880298</v>
+        <v>11.048857</v>
       </c>
       <c r="O29">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="P29">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="Q29">
-        <v>16.14813023645578</v>
+        <v>21.52032160324322</v>
       </c>
       <c r="R29">
-        <v>145.333172128102</v>
+        <v>193.682894429189</v>
       </c>
       <c r="S29">
-        <v>0.003052142579043242</v>
+        <v>0.004026417553505432</v>
       </c>
       <c r="T29">
-        <v>0.003052142579043242</v>
+        <v>0.004026417553505432</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.455266333333333</v>
+        <v>5.843225666666666</v>
       </c>
       <c r="H30">
-        <v>16.365799</v>
+        <v>17.529677</v>
       </c>
       <c r="I30">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="J30">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.452280999999999</v>
+        <v>8.370851</v>
       </c>
       <c r="N30">
-        <v>22.356843</v>
+        <v>25.112553</v>
       </c>
       <c r="O30">
-        <v>0.0611082743562504</v>
+        <v>0.07151104607333426</v>
       </c>
       <c r="P30">
-        <v>0.06110827435625042</v>
+        <v>0.07151104607333425</v>
       </c>
       <c r="Q30">
-        <v>40.65417764583966</v>
+        <v>48.91277141504233</v>
       </c>
       <c r="R30">
-        <v>365.8875988125569</v>
+        <v>440.214942735381</v>
       </c>
       <c r="S30">
-        <v>0.007684007051709845</v>
+        <v>0.009151500848688284</v>
       </c>
       <c r="T30">
-        <v>0.007684007051709845</v>
+        <v>0.009151500848688284</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.455266333333333</v>
+        <v>5.843225666666666</v>
       </c>
       <c r="H31">
-        <v>16.365799</v>
+        <v>17.529677</v>
       </c>
       <c r="I31">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="J31">
-        <v>0.1257441342053524</v>
+        <v>0.1279732482070457</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>24.85018033333334</v>
+        <v>12.20582166666667</v>
       </c>
       <c r="N31">
-        <v>74.55054100000001</v>
+        <v>36.617465</v>
       </c>
       <c r="O31">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="P31">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="Q31">
-        <v>135.5643521496955</v>
+        <v>71.32137044542276</v>
       </c>
       <c r="R31">
-        <v>1220.079169347259</v>
+        <v>641.8923340088049</v>
       </c>
       <c r="S31">
-        <v>0.02562288793425727</v>
+        <v>0.01334411367989202</v>
       </c>
       <c r="T31">
-        <v>0.02562288793425727</v>
+        <v>0.01334411367989203</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.165733666666668</v>
+        <v>10.11601266666667</v>
       </c>
       <c r="H32">
-        <v>27.497201</v>
+        <v>30.348038</v>
       </c>
       <c r="I32">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="J32">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>64.44050866666666</v>
+        <v>72.23097766666666</v>
       </c>
       <c r="N32">
-        <v>193.321526</v>
+        <v>216.692933</v>
       </c>
       <c r="O32">
-        <v>0.5284084541711455</v>
+        <v>0.6170594568990628</v>
       </c>
       <c r="P32">
-        <v>0.5284084541711456</v>
+        <v>0.6170594568990629</v>
       </c>
       <c r="Q32">
-        <v>590.6445397831918</v>
+        <v>730.689485001717</v>
       </c>
       <c r="R32">
-        <v>5315.800858048726</v>
+        <v>6576.205365015453</v>
       </c>
       <c r="S32">
-        <v>0.111637156906368</v>
+        <v>0.1367108272271068</v>
       </c>
       <c r="T32">
-        <v>0.111637156906368</v>
+        <v>0.1367108272271068</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.165733666666668</v>
+        <v>10.11601266666667</v>
       </c>
       <c r="H33">
-        <v>27.497201</v>
+        <v>30.348038</v>
       </c>
       <c r="I33">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="J33">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.371831</v>
       </c>
       <c r="O33">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767264</v>
       </c>
       <c r="P33">
-        <v>0.02014952966552173</v>
+        <v>0.02099218451767265</v>
       </c>
       <c r="Q33">
-        <v>22.52274652722567</v>
+        <v>24.85784525750866</v>
       </c>
       <c r="R33">
-        <v>202.704718745031</v>
+        <v>223.720607317578</v>
       </c>
       <c r="S33">
-        <v>0.004257002678709602</v>
+        <v>0.004650862860342703</v>
       </c>
       <c r="T33">
-        <v>0.004257002678709603</v>
+        <v>0.004650862860342705</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.165733666666668</v>
+        <v>10.11601266666667</v>
       </c>
       <c r="H34">
-        <v>27.497201</v>
+        <v>30.348038</v>
       </c>
       <c r="I34">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="J34">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>19.791731</v>
+        <v>18.10887533333333</v>
       </c>
       <c r="N34">
-        <v>59.375193</v>
+        <v>54.326626</v>
       </c>
       <c r="O34">
-        <v>0.162291052623097</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="P34">
-        <v>0.1622910526230971</v>
+        <v>0.1547016687190187</v>
       </c>
       <c r="Q34">
-        <v>181.4057351483104</v>
+        <v>183.1896122510875</v>
       </c>
       <c r="R34">
-        <v>1632.651616334793</v>
+        <v>1648.706510259788</v>
       </c>
       <c r="S34">
-        <v>0.03428732368524178</v>
+        <v>0.03427448176594503</v>
       </c>
       <c r="T34">
-        <v>0.03428732368524179</v>
+        <v>0.03427448176594503</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.165733666666668</v>
+        <v>10.11601266666667</v>
       </c>
       <c r="H35">
-        <v>27.497201</v>
+        <v>30.348038</v>
       </c>
       <c r="I35">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="J35">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.960099333333333</v>
+        <v>3.682952333333333</v>
       </c>
       <c r="N35">
-        <v>8.880298</v>
+        <v>11.048857</v>
       </c>
       <c r="O35">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="P35">
-        <v>0.02427264379632052</v>
+        <v>0.03146296284510307</v>
       </c>
       <c r="Q35">
-        <v>27.13148211621089</v>
+        <v>37.25679245472955</v>
       </c>
       <c r="R35">
-        <v>244.183339045898</v>
+        <v>335.311132092566</v>
       </c>
       <c r="S35">
-        <v>0.005128095363789473</v>
+        <v>0.006970685935493842</v>
       </c>
       <c r="T35">
-        <v>0.005128095363789475</v>
+        <v>0.006970685935493843</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.165733666666668</v>
+        <v>10.11601266666667</v>
       </c>
       <c r="H36">
-        <v>27.497201</v>
+        <v>30.348038</v>
       </c>
       <c r="I36">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="J36">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.452280999999999</v>
+        <v>8.370851</v>
       </c>
       <c r="N36">
-        <v>22.356843</v>
+        <v>25.112553</v>
       </c>
       <c r="O36">
-        <v>0.0611082743562504</v>
+        <v>0.07151104607333426</v>
       </c>
       <c r="P36">
-        <v>0.06110827435625042</v>
+        <v>0.07151104607333425</v>
       </c>
       <c r="Q36">
-        <v>68.30562285516034</v>
+        <v>84.67963474677933</v>
       </c>
       <c r="R36">
-        <v>614.750605696443</v>
+        <v>762.1167127210139</v>
       </c>
       <c r="S36">
-        <v>0.01291038014008867</v>
+        <v>0.01584342344203058</v>
       </c>
       <c r="T36">
-        <v>0.01291038014008867</v>
+        <v>0.01584342344203058</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.165733666666668</v>
+        <v>10.11601266666667</v>
       </c>
       <c r="H37">
-        <v>27.497201</v>
+        <v>30.348038</v>
       </c>
       <c r="I37">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="J37">
-        <v>0.2112705730294959</v>
+        <v>0.2215521141416841</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>24.85018033333334</v>
+        <v>12.20582166666667</v>
       </c>
       <c r="N37">
-        <v>74.55054100000001</v>
+        <v>36.617465</v>
       </c>
       <c r="O37">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="P37">
-        <v>0.2037700453876648</v>
+        <v>0.1042726809458084</v>
       </c>
       <c r="Q37">
-        <v>227.7701345039713</v>
+        <v>123.4742465870744</v>
       </c>
       <c r="R37">
-        <v>2049.931210535742</v>
+        <v>1111.26821928367</v>
       </c>
       <c r="S37">
-        <v>0.04305061425529832</v>
+        <v>0.02310183291076515</v>
       </c>
       <c r="T37">
-        <v>0.04305061425529833</v>
+        <v>0.02310183291076516</v>
       </c>
     </row>
   </sheetData>
